--- a/Datasets/Vater/Data/Vater_JR.xlsx
+++ b/Datasets/Vater/Data/Vater_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Vater/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8605A537-7DFE-D54E-9112-BE239724570B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97143EC2-051A-F34B-818E-DD756F404751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
+    <workbookView xWindow="13860" yWindow="500" windowWidth="14940" windowHeight="16020" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="304">
   <si>
     <t>ID</t>
   </si>
@@ -126,9 +126,6 @@
     <t>I. Vater Unser nach Deutschen Mundarten.</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>1. Aelteste Denkmäler der Deutschen Sprache bis zur Erfindung der Buchdruckerkunst.</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Aus der Umschreibung des V. U., Kero oder Notker beigelegt.</t>
   </si>
   <si>
-    <t>[Wien]</t>
-  </si>
-  <si>
     <t>Kleinregional</t>
   </si>
   <si>
@@ -936,7 +930,25 @@
     <t>9.3601542</t>
   </si>
   <si>
-    <t>Vat1</t>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>8.6328967</t>
+  </si>
+  <si>
+    <t>47.7001756</t>
+  </si>
+  <si>
+    <t>Schaffhausen</t>
+  </si>
+  <si>
+    <t>Zeitliche Relevanz? / Unsicher, ob tatsächlich Schaffhausen gemeint ist, aber es gibt einen Johannes Adelphi (wie in Anmerkung genannt) in Verbindung mit der Stadt</t>
+  </si>
+  <si>
+    <t>[vat1]</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1045,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1351,11 +1363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B81"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1379,7 @@
     <col min="17" max="17" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,24 +1450,27 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1467,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K2">
         <v>999</v>
@@ -1485,18 +1500,21 @@
         <v>-1</v>
       </c>
       <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1508,36 +1526,39 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1549,36 +1570,39 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1590,36 +1614,39 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1631,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K6">
         <v>999</v>
@@ -1643,24 +1670,27 @@
         <v>999</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1672,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K7">
         <v>999</v>
@@ -1684,24 +1714,27 @@
         <v>999</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1713,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K8">
         <v>999</v>
@@ -1725,24 +1758,27 @@
         <v>999</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1754,36 +1790,39 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1795,36 +1834,39 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>60</v>
+      <c r="O10" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1836,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K11">
         <v>999</v>
@@ -1848,24 +1890,27 @@
         <v>999</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1877,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K12">
         <v>999</v>
@@ -1889,24 +1934,27 @@
         <v>999</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1918,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K13">
         <v>999</v>
@@ -1930,24 +1978,27 @@
         <v>999</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1959,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K14">
         <v>999</v>
@@ -1971,24 +2022,27 @@
         <v>999</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2000,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K15">
         <v>999</v>
@@ -2012,24 +2066,27 @@
         <v>999</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2041,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K16">
         <v>999</v>
@@ -2053,24 +2110,27 @@
         <v>999</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="W16" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2082,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K17">
         <v>999</v>
@@ -2094,24 +2154,27 @@
         <v>999</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2123,36 +2186,39 @@
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>241</v>
-      </c>
-      <c r="K18" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>60</v>
+      <c r="O18" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2164,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K19">
         <v>999</v>
@@ -2176,24 +2242,27 @@
         <v>999</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W19" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA19" t="s">
         <v>31</v>
       </c>
-      <c r="Z19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2205,36 +2274,39 @@
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="O20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2246,36 +2318,39 @@
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>241</v>
-      </c>
-      <c r="K21" s="8">
-        <v>999</v>
-      </c>
-      <c r="L21" s="8">
-        <v>999</v>
-      </c>
-      <c r="M21" s="8">
-        <v>999</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>38</v>
+        <v>239</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="V21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2287,36 +2362,39 @@
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>241</v>
-      </c>
-      <c r="K22" s="8">
+        <v>239</v>
+      </c>
+      <c r="K22" s="11">
         <v>999</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="11">
         <v>999</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="11">
         <v>999</v>
       </c>
-      <c r="N22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>38</v>
+      <c r="N22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2328,36 +2406,39 @@
         <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="O23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2369,36 +2450,39 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
-      </c>
-      <c r="K24" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="V24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2410,36 +2494,39 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
-      </c>
-      <c r="K25" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2451,36 +2538,39 @@
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
-      </c>
-      <c r="K26" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="V26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2492,36 +2582,39 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
-      </c>
-      <c r="K27" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="O27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2533,36 +2626,39 @@
         <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
-      </c>
-      <c r="K28" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="V28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -2570,11 +2666,11 @@
       <c r="D29">
         <v>16</v>
       </c>
-      <c r="E29" t="s">
-        <v>29</v>
+      <c r="E29">
+        <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K29">
         <v>999</v>
@@ -2586,21 +2682,24 @@
         <v>999</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -2612,33 +2711,36 @@
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="W30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -2650,33 +2752,36 @@
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" t="s">
         <v>51</v>
       </c>
-      <c r="M31" t="s">
-        <v>52</v>
-      </c>
       <c r="N31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -2688,39 +2793,42 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L32" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" t="s">
-        <v>58</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="V32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -2732,33 +2840,36 @@
         <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" t="s">
-        <v>37</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="V33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -2770,33 +2881,36 @@
         <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M34" t="s">
-        <v>58</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="V34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -2808,33 +2922,36 @@
         <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M35" t="s">
-        <v>58</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>122</v>
+        <v>56</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="V35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -2846,33 +2963,36 @@
         <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="W36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -2884,33 +3004,36 @@
         <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -2922,36 +3045,39 @@
         <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L38" t="s">
-        <v>51</v>
-      </c>
-      <c r="M38" t="s">
-        <v>37</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="O38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V38" t="s">
+        <v>128</v>
+      </c>
+      <c r="W38" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA38" t="s">
         <v>132</v>
       </c>
-      <c r="V38" t="s">
-        <v>130</v>
-      </c>
-      <c r="W38" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -2963,33 +3089,36 @@
         <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K39" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L39" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" t="s">
-        <v>37</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="V39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3001,33 +3130,36 @@
         <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K40" t="s">
+        <v>137</v>
+      </c>
+      <c r="L40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="O40" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -3039,33 +3171,36 @@
         <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -3077,33 +3212,36 @@
         <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K42" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L42" t="s">
-        <v>51</v>
-      </c>
-      <c r="M42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="V42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -3115,33 +3253,36 @@
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" t="s">
-        <v>37</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="V43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -3153,33 +3294,36 @@
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K44" t="s">
+        <v>153</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="L44" t="s">
-        <v>51</v>
-      </c>
-      <c r="M44" t="s">
-        <v>58</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="O44" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -3191,38 +3335,41 @@
         <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K45" t="s">
+        <v>157</v>
+      </c>
+      <c r="L45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="L45" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" t="s">
-        <v>58</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="V45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W45" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -3234,33 +3381,36 @@
         <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -3272,36 +3422,39 @@
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="V47" t="s">
+        <v>163</v>
+      </c>
+      <c r="W47" t="s">
+        <v>33</v>
+      </c>
+      <c r="X47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" t="s">
         <v>166</v>
       </c>
-      <c r="V47" t="s">
-        <v>165</v>
-      </c>
-      <c r="W47" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -3313,33 +3466,36 @@
         <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -3351,33 +3507,36 @@
         <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" t="s">
+        <v>50</v>
+      </c>
+      <c r="M49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L49" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" t="s">
-        <v>37</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="O49" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -3389,39 +3548,42 @@
         <v>24</v>
       </c>
       <c r="J50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P50" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="P50" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="V50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -3433,33 +3595,36 @@
         <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -3471,33 +3636,36 @@
         <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="V52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -3509,33 +3677,36 @@
         <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K53" t="s">
+        <v>186</v>
+      </c>
+      <c r="L53" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="L53" t="s">
-        <v>51</v>
-      </c>
-      <c r="M53" t="s">
-        <v>52</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="V53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="W53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -3547,33 +3718,36 @@
         <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K54" t="s">
+        <v>190</v>
+      </c>
+      <c r="L54" t="s">
+        <v>50</v>
+      </c>
+      <c r="M54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L54" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" t="s">
-        <v>37</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="O54" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -3585,33 +3759,36 @@
         <v>27</v>
       </c>
       <c r="J55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -3623,33 +3800,36 @@
         <v>28</v>
       </c>
       <c r="J56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -3661,33 +3841,36 @@
         <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K57" t="s">
+        <v>201</v>
+      </c>
+      <c r="L57" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O57" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L57" t="s">
-        <v>51</v>
-      </c>
-      <c r="M57" t="s">
-        <v>58</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="V57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -3699,33 +3882,36 @@
         <v>29</v>
       </c>
       <c r="J58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -3737,33 +3923,36 @@
         <v>29</v>
       </c>
       <c r="J59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59" t="s">
         <v>51</v>
       </c>
-      <c r="M59" t="s">
-        <v>52</v>
-      </c>
       <c r="N59" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -3775,33 +3964,36 @@
         <v>30</v>
       </c>
       <c r="J60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s">
+        <v>211</v>
+      </c>
+      <c r="L60" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" t="s">
+        <v>51</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O60" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="L60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M60" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="V60" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -3813,33 +4005,36 @@
         <v>30</v>
       </c>
       <c r="J61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K61" t="s">
+        <v>215</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="O61" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="V61" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -3851,71 +4046,77 @@
         <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K62" t="s">
+        <v>219</v>
+      </c>
+      <c r="L62" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" t="s">
+        <v>51</v>
+      </c>
+      <c r="N62" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L62" t="s">
-        <v>51</v>
-      </c>
-      <c r="M62" t="s">
-        <v>52</v>
-      </c>
-      <c r="N62" s="4" t="s">
+      <c r="O62" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="V62" t="s">
+        <v>218</v>
+      </c>
+      <c r="W62" t="s">
+        <v>33</v>
+      </c>
+      <c r="X62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B63" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>33</v>
+      </c>
+      <c r="E63">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>239</v>
+      </c>
+      <c r="K63" t="s">
+        <v>242</v>
+      </c>
+      <c r="L63" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="O63" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="O62" s="4" t="s">
+      <c r="V63" t="s">
         <v>222</v>
       </c>
-      <c r="V62" t="s">
-        <v>220</v>
-      </c>
-      <c r="W62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B63" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63">
-        <v>33</v>
-      </c>
-      <c r="E63">
-        <v>33</v>
-      </c>
-      <c r="J63" t="s">
-        <v>241</v>
-      </c>
-      <c r="K63" t="s">
-        <v>244</v>
-      </c>
-      <c r="L63" t="s">
-        <v>51</v>
-      </c>
-      <c r="M63" t="s">
-        <v>58</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="V63" t="s">
-        <v>224</v>
-      </c>
       <c r="W63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -3927,39 +4128,42 @@
         <v>34</v>
       </c>
       <c r="J64" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K64" t="s">
+        <v>226</v>
+      </c>
+      <c r="L64" t="s">
+        <v>50</v>
+      </c>
+      <c r="M64" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q64" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="L64" t="s">
-        <v>51</v>
-      </c>
-      <c r="M64" t="s">
-        <v>58</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="V64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -3971,110 +4175,118 @@
         <v>35</v>
       </c>
       <c r="J65" t="s">
+        <v>239</v>
+      </c>
+      <c r="K65" t="s">
         <v>241</v>
       </c>
-      <c r="K65" t="s">
-        <v>243</v>
-      </c>
       <c r="L65" t="s">
+        <v>50</v>
+      </c>
+      <c r="M65" t="s">
         <v>51</v>
       </c>
-      <c r="M65" t="s">
-        <v>52</v>
-      </c>
       <c r="N65" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="V65" t="s">
+        <v>229</v>
+      </c>
+      <c r="W65" t="s">
+        <v>33</v>
+      </c>
+      <c r="X65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B66" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66">
+        <v>35</v>
+      </c>
+      <c r="E66">
+        <v>35</v>
+      </c>
+      <c r="J66" t="s">
+        <v>239</v>
+      </c>
+      <c r="K66" t="s">
+        <v>240</v>
+      </c>
+      <c r="L66" t="s">
+        <v>50</v>
+      </c>
+      <c r="M66" t="s">
+        <v>56</v>
+      </c>
+      <c r="N66" t="s">
         <v>233</v>
       </c>
-      <c r="O65" s="4" t="s">
+      <c r="O66" t="s">
+        <v>234</v>
+      </c>
+      <c r="V66" t="s">
         <v>232</v>
       </c>
-      <c r="V65" t="s">
-        <v>231</v>
-      </c>
-      <c r="W65" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B66" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66">
-        <v>35</v>
-      </c>
-      <c r="E66">
-        <v>35</v>
-      </c>
-      <c r="J66" t="s">
-        <v>241</v>
-      </c>
-      <c r="K66" t="s">
-        <v>242</v>
-      </c>
-      <c r="L66" t="s">
-        <v>51</v>
-      </c>
-      <c r="M66" t="s">
-        <v>58</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="W66" t="s">
+        <v>33</v>
+      </c>
+      <c r="X66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B67" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>35</v>
+      </c>
+      <c r="J67" t="s">
+        <v>239</v>
+      </c>
+      <c r="K67" t="s">
+        <v>236</v>
+      </c>
+      <c r="L67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M67" t="s">
+        <v>56</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="V67" t="s">
         <v>235</v>
       </c>
-      <c r="O66" t="s">
-        <v>236</v>
-      </c>
-      <c r="V66" t="s">
-        <v>234</v>
-      </c>
-      <c r="W66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B67" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67">
-        <v>35</v>
-      </c>
-      <c r="E67">
-        <v>35</v>
-      </c>
-      <c r="J67" t="s">
-        <v>241</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L67" t="s">
-        <v>51</v>
-      </c>
-      <c r="M67" t="s">
-        <v>58</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="V67" t="s">
-        <v>237</v>
-      </c>
       <c r="W67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z67" s="10"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -4086,33 +4298,36 @@
         <v>36</v>
       </c>
       <c r="J68" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K68" t="s">
+        <v>258</v>
+      </c>
+      <c r="L68" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O68" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L68" t="s">
-        <v>51</v>
-      </c>
-      <c r="M68" t="s">
-        <v>58</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="V68" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -4124,33 +4339,36 @@
         <v>36</v>
       </c>
       <c r="J69" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K69" t="s">
+        <v>262</v>
+      </c>
+      <c r="L69" t="s">
+        <v>50</v>
+      </c>
+      <c r="M69" t="s">
+        <v>36</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O69" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="L69" t="s">
-        <v>51</v>
-      </c>
-      <c r="M69" t="s">
-        <v>37</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="V69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -4162,33 +4380,36 @@
         <v>37</v>
       </c>
       <c r="J70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K70" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -4200,33 +4421,36 @@
         <v>37</v>
       </c>
       <c r="J71" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K71" t="s">
+        <v>270</v>
+      </c>
+      <c r="L71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" t="s">
+        <v>36</v>
+      </c>
+      <c r="N71" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="L71" t="s">
-        <v>51</v>
-      </c>
-      <c r="M71" t="s">
-        <v>37</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="O71" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V71" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="W71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -4238,39 +4462,42 @@
         <v>38</v>
       </c>
       <c r="J72" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M72">
         <v>999</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V72" t="s">
+        <v>273</v>
+      </c>
+      <c r="W72" t="s">
+        <v>33</v>
+      </c>
+      <c r="X72" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA72" t="s">
         <v>275</v>
       </c>
-      <c r="W72" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D73">
         <v>45</v>
@@ -4279,36 +4506,39 @@
         <v>48</v>
       </c>
       <c r="J73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D74">
         <v>48</v>
@@ -4317,36 +4547,39 @@
         <v>49</v>
       </c>
       <c r="J74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K74" t="s">
+        <v>280</v>
+      </c>
+      <c r="L74" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" t="s">
+        <v>56</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O74" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="L74" t="s">
-        <v>51</v>
-      </c>
-      <c r="M74" t="s">
-        <v>58</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="V74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D75">
         <v>49</v>
@@ -4355,36 +4588,39 @@
         <v>51</v>
       </c>
       <c r="J75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K75" t="s">
+        <v>157</v>
+      </c>
+      <c r="L75" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" t="s">
+        <v>56</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O75" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="L75" t="s">
-        <v>36</v>
-      </c>
-      <c r="M75" t="s">
-        <v>58</v>
-      </c>
-      <c r="N75" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="V75" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D76">
         <v>51</v>
@@ -4393,36 +4629,39 @@
         <v>54</v>
       </c>
       <c r="J76" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V76" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="W76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D77">
         <v>55</v>
@@ -4431,36 +4670,39 @@
         <v>60</v>
       </c>
       <c r="J77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K77" t="s">
+        <v>287</v>
+      </c>
+      <c r="L77" t="s">
+        <v>35</v>
+      </c>
+      <c r="M77" t="s">
+        <v>51</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L77" t="s">
-        <v>36</v>
-      </c>
-      <c r="M77" t="s">
-        <v>52</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="O77" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="W77" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D78">
         <v>55</v>
@@ -4469,36 +4711,39 @@
         <v>60</v>
       </c>
       <c r="J78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K78" t="s">
+        <v>287</v>
+      </c>
+      <c r="L78" t="s">
+        <v>35</v>
+      </c>
+      <c r="M78" t="s">
+        <v>51</v>
+      </c>
+      <c r="N78" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L78" t="s">
-        <v>36</v>
-      </c>
-      <c r="M78" t="s">
-        <v>52</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="O78" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="V78" t="s">
         <v>290</v>
       </c>
-      <c r="V78" t="s">
-        <v>292</v>
-      </c>
       <c r="W78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D79">
         <v>60</v>
@@ -4507,36 +4752,39 @@
         <v>60</v>
       </c>
       <c r="J79" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K79" t="s">
+        <v>287</v>
+      </c>
+      <c r="L79" t="s">
+        <v>35</v>
+      </c>
+      <c r="M79" t="s">
+        <v>51</v>
+      </c>
+      <c r="N79" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L79" t="s">
-        <v>36</v>
-      </c>
-      <c r="M79" t="s">
-        <v>52</v>
-      </c>
-      <c r="N79" s="4" t="s">
+      <c r="O79" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="V79" t="s">
         <v>291</v>
       </c>
-      <c r="O79" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="V79" t="s">
-        <v>293</v>
-      </c>
       <c r="W79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="X79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D80">
         <v>61</v>
@@ -4545,36 +4793,39 @@
         <v>66</v>
       </c>
       <c r="J80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K80" t="s">
+        <v>287</v>
+      </c>
+      <c r="L80" t="s">
+        <v>35</v>
+      </c>
+      <c r="M80" t="s">
+        <v>51</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L80" t="s">
-        <v>36</v>
-      </c>
-      <c r="M80" t="s">
-        <v>52</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="O80" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D81">
         <v>66</v>
@@ -4583,28 +4834,31 @@
         <v>68</v>
       </c>
       <c r="J81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K81" t="s">
+        <v>294</v>
+      </c>
+      <c r="L81" t="s">
+        <v>35</v>
+      </c>
+      <c r="M81" t="s">
+        <v>56</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="O81" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L81" t="s">
-        <v>36</v>
-      </c>
-      <c r="M81" t="s">
-        <v>58</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="V81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="W81" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="X81" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4626,12 +4880,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Vater/Data/Vater_JR.xlsx
+++ b/Datasets/Vater/Data/Vater_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Vater/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97143EC2-051A-F34B-818E-DD756F404751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901D7C6E-7858-F74F-A2AD-BC6507ECCA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13860" yWindow="500" windowWidth="14940" windowHeight="16020" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1047,8 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1365,9 +1363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2:AC81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,9 +1479,6 @@
       <c r="E2">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>239</v>
-      </c>
       <c r="K2">
         <v>999</v>
       </c>
@@ -1508,7 +1503,10 @@
       <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1525,9 +1523,6 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>239</v>
-      </c>
       <c r="K3" t="s">
         <v>34</v>
       </c>
@@ -1552,7 +1547,10 @@
       <c r="X3" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1569,9 +1567,6 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
-        <v>239</v>
-      </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
@@ -1596,7 +1591,10 @@
       <c r="X4" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1613,9 +1611,6 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>239</v>
-      </c>
       <c r="K5" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1635,10 @@
       <c r="X5" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1657,9 +1655,6 @@
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
-        <v>239</v>
-      </c>
       <c r="K6">
         <v>999</v>
       </c>
@@ -1684,7 +1679,10 @@
       <c r="X6" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1701,9 +1699,6 @@
       <c r="E7">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
-        <v>239</v>
-      </c>
       <c r="K7">
         <v>999</v>
       </c>
@@ -1728,7 +1723,10 @@
       <c r="X7" t="s">
         <v>35</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1745,9 +1743,6 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
-        <v>239</v>
-      </c>
       <c r="K8">
         <v>999</v>
       </c>
@@ -1772,7 +1767,10 @@
       <c r="X8" t="s">
         <v>35</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1789,9 +1787,6 @@
       <c r="E9">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
-        <v>239</v>
-      </c>
       <c r="K9" s="6" t="s">
         <v>54</v>
       </c>
@@ -1816,7 +1811,10 @@
       <c r="X9" t="s">
         <v>35</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1833,22 +1831,19 @@
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="J10" t="s">
-        <v>239</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" t="s">
         <v>297</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="4" t="s">
         <v>58</v>
       </c>
       <c r="V10" t="s">
@@ -1860,7 +1855,10 @@
       <c r="X10" t="s">
         <v>35</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1877,9 +1875,6 @@
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="J11" t="s">
-        <v>239</v>
-      </c>
       <c r="K11">
         <v>999</v>
       </c>
@@ -1904,7 +1899,10 @@
       <c r="X11" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1921,9 +1919,6 @@
       <c r="E12">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
-        <v>239</v>
-      </c>
       <c r="K12">
         <v>999</v>
       </c>
@@ -1948,7 +1943,10 @@
       <c r="X12" t="s">
         <v>35</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1965,9 +1963,6 @@
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="J13" t="s">
-        <v>239</v>
-      </c>
       <c r="K13">
         <v>999</v>
       </c>
@@ -1992,7 +1987,10 @@
       <c r="X13" t="s">
         <v>35</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2009,9 +2007,6 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
-        <v>239</v>
-      </c>
       <c r="K14">
         <v>999</v>
       </c>
@@ -2036,7 +2031,10 @@
       <c r="X14" t="s">
         <v>35</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2053,9 +2051,6 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
-        <v>239</v>
-      </c>
       <c r="K15">
         <v>999</v>
       </c>
@@ -2080,7 +2075,10 @@
       <c r="X15" t="s">
         <v>35</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2097,9 +2095,6 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
-        <v>239</v>
-      </c>
       <c r="K16">
         <v>999</v>
       </c>
@@ -2124,11 +2119,14 @@
       <c r="X16" t="s">
         <v>35</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>302</v>
       </c>
@@ -2141,9 +2139,6 @@
       <c r="E17">
         <v>11</v>
       </c>
-      <c r="J17" t="s">
-        <v>239</v>
-      </c>
       <c r="K17">
         <v>999</v>
       </c>
@@ -2168,11 +2163,14 @@
       <c r="X17" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>302</v>
       </c>
@@ -2185,22 +2183,19 @@
       <c r="E18">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
-        <v>239</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" t="s">
         <v>297</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="11" t="s">
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="V18" t="s">
@@ -2212,11 +2207,14 @@
       <c r="X18" t="s">
         <v>35</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>302</v>
       </c>
@@ -2229,9 +2227,6 @@
       <c r="E19">
         <v>15</v>
       </c>
-      <c r="J19" t="s">
-        <v>239</v>
-      </c>
       <c r="K19">
         <v>999</v>
       </c>
@@ -2256,11 +2251,14 @@
       <c r="X19" t="s">
         <v>35</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>302</v>
       </c>
@@ -2273,9 +2271,6 @@
       <c r="E20">
         <v>12</v>
       </c>
-      <c r="J20" t="s">
-        <v>239</v>
-      </c>
       <c r="K20" t="s">
         <v>71</v>
       </c>
@@ -2300,11 +2295,14 @@
       <c r="X20" t="s">
         <v>35</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>302</v>
       </c>
@@ -2317,22 +2315,19 @@
       <c r="E21">
         <v>13</v>
       </c>
-      <c r="J21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" t="s">
         <v>300</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="11" t="s">
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="4" t="s">
         <v>298</v>
       </c>
       <c r="V21" t="s">
@@ -2344,11 +2339,14 @@
       <c r="X21" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>302</v>
       </c>
@@ -2361,22 +2359,19 @@
       <c r="E22">
         <v>13</v>
       </c>
-      <c r="J22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="K22">
         <v>999</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22">
         <v>999</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22">
         <v>999</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V22" t="s">
@@ -2388,11 +2383,14 @@
       <c r="X22" t="s">
         <v>35</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>302</v>
       </c>
@@ -2405,9 +2403,6 @@
       <c r="E23">
         <v>13</v>
       </c>
-      <c r="J23" t="s">
-        <v>239</v>
-      </c>
       <c r="K23" t="s">
         <v>77</v>
       </c>
@@ -2432,11 +2427,14 @@
       <c r="X23" t="s">
         <v>35</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>302</v>
       </c>
@@ -2449,22 +2447,19 @@
       <c r="E24">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
-        <v>239</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="11" t="s">
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="4" t="s">
         <v>83</v>
       </c>
       <c r="V24" t="s">
@@ -2476,11 +2471,14 @@
       <c r="X24" t="s">
         <v>35</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>302</v>
       </c>
@@ -2493,22 +2491,19 @@
       <c r="E25">
         <v>14</v>
       </c>
-      <c r="J25" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="11" t="s">
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="4" t="s">
         <v>87</v>
       </c>
       <c r="V25" t="s">
@@ -2520,11 +2515,14 @@
       <c r="X25" t="s">
         <v>35</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>302</v>
       </c>
@@ -2537,9 +2535,6 @@
       <c r="E26">
         <v>15</v>
       </c>
-      <c r="J26" t="s">
-        <v>239</v>
-      </c>
       <c r="K26" t="s">
         <v>89</v>
       </c>
@@ -2564,11 +2559,14 @@
       <c r="X26" t="s">
         <v>35</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>302</v>
       </c>
@@ -2581,9 +2579,6 @@
       <c r="E27">
         <v>15</v>
       </c>
-      <c r="J27" t="s">
-        <v>239</v>
-      </c>
       <c r="K27" t="s">
         <v>93</v>
       </c>
@@ -2608,11 +2603,14 @@
       <c r="X27" t="s">
         <v>35</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>302</v>
       </c>
@@ -2625,22 +2623,19 @@
       <c r="E28">
         <v>15</v>
       </c>
-      <c r="J28" t="s">
-        <v>239</v>
-      </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M28" s="11" t="s">
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="4" t="s">
         <v>87</v>
       </c>
       <c r="V28" t="s">
@@ -2652,11 +2647,14 @@
       <c r="X28" t="s">
         <v>35</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>302</v>
       </c>
@@ -2669,9 +2667,6 @@
       <c r="E29">
         <v>38</v>
       </c>
-      <c r="J29" t="s">
-        <v>239</v>
-      </c>
       <c r="K29">
         <v>999</v>
       </c>
@@ -2696,8 +2691,11 @@
       <c r="X29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>302</v>
       </c>
@@ -2710,9 +2708,6 @@
       <c r="E30">
         <v>16</v>
       </c>
-      <c r="J30" t="s">
-        <v>239</v>
-      </c>
       <c r="K30" t="s">
         <v>256</v>
       </c>
@@ -2737,8 +2732,11 @@
       <c r="X30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>302</v>
       </c>
@@ -2751,9 +2749,6 @@
       <c r="E31">
         <v>16</v>
       </c>
-      <c r="J31" t="s">
-        <v>239</v>
-      </c>
       <c r="K31" t="s">
         <v>255</v>
       </c>
@@ -2778,8 +2773,11 @@
       <c r="X31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>302</v>
       </c>
@@ -2792,9 +2790,6 @@
       <c r="E32">
         <v>17</v>
       </c>
-      <c r="J32" t="s">
-        <v>239</v>
-      </c>
       <c r="K32" t="s">
         <v>105</v>
       </c>
@@ -2825,8 +2820,11 @@
       <c r="X32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>302</v>
       </c>
@@ -2839,9 +2837,6 @@
       <c r="E33">
         <v>17</v>
       </c>
-      <c r="J33" t="s">
-        <v>239</v>
-      </c>
       <c r="K33" t="s">
         <v>111</v>
       </c>
@@ -2866,8 +2861,11 @@
       <c r="X33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>302</v>
       </c>
@@ -2880,9 +2878,6 @@
       <c r="E34">
         <v>18</v>
       </c>
-      <c r="J34" t="s">
-        <v>239</v>
-      </c>
       <c r="K34" t="s">
         <v>115</v>
       </c>
@@ -2907,8 +2902,11 @@
       <c r="X34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>302</v>
       </c>
@@ -2921,9 +2919,6 @@
       <c r="E35">
         <v>18</v>
       </c>
-      <c r="J35" t="s">
-        <v>239</v>
-      </c>
       <c r="K35" t="s">
         <v>254</v>
       </c>
@@ -2948,8 +2943,11 @@
       <c r="X35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>302</v>
       </c>
@@ -2962,9 +2960,6 @@
       <c r="E36">
         <v>19</v>
       </c>
-      <c r="J36" t="s">
-        <v>239</v>
-      </c>
       <c r="K36" t="s">
         <v>277</v>
       </c>
@@ -2989,8 +2984,11 @@
       <c r="X36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>302</v>
       </c>
@@ -3003,9 +3001,6 @@
       <c r="E37">
         <v>19</v>
       </c>
-      <c r="J37" t="s">
-        <v>239</v>
-      </c>
       <c r="K37" t="s">
         <v>127</v>
       </c>
@@ -3030,8 +3025,11 @@
       <c r="X37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>302</v>
       </c>
@@ -3044,9 +3042,6 @@
       <c r="E38">
         <v>20</v>
       </c>
-      <c r="J38" t="s">
-        <v>239</v>
-      </c>
       <c r="K38" t="s">
         <v>129</v>
       </c>
@@ -3071,11 +3066,14 @@
       <c r="X38" t="s">
         <v>35</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>302</v>
       </c>
@@ -3088,9 +3086,6 @@
       <c r="E39">
         <v>20</v>
       </c>
-      <c r="J39" t="s">
-        <v>239</v>
-      </c>
       <c r="K39" t="s">
         <v>134</v>
       </c>
@@ -3115,8 +3110,11 @@
       <c r="X39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>302</v>
       </c>
@@ -3129,9 +3127,6 @@
       <c r="E40">
         <v>21</v>
       </c>
-      <c r="J40" t="s">
-        <v>239</v>
-      </c>
       <c r="K40" t="s">
         <v>137</v>
       </c>
@@ -3156,8 +3151,11 @@
       <c r="X40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>302</v>
       </c>
@@ -3170,9 +3168,6 @@
       <c r="E41">
         <v>21</v>
       </c>
-      <c r="J41" t="s">
-        <v>239</v>
-      </c>
       <c r="K41" t="s">
         <v>253</v>
       </c>
@@ -3197,8 +3192,11 @@
       <c r="X41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>302</v>
       </c>
@@ -3211,9 +3209,6 @@
       <c r="E42">
         <v>21</v>
       </c>
-      <c r="J42" t="s">
-        <v>239</v>
-      </c>
       <c r="K42" t="s">
         <v>145</v>
       </c>
@@ -3238,8 +3233,11 @@
       <c r="X42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>302</v>
       </c>
@@ -3252,9 +3250,6 @@
       <c r="E43">
         <v>22</v>
       </c>
-      <c r="J43" t="s">
-        <v>239</v>
-      </c>
       <c r="K43" t="s">
         <v>149</v>
       </c>
@@ -3279,8 +3274,11 @@
       <c r="X43" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>302</v>
       </c>
@@ -3293,9 +3291,6 @@
       <c r="E44">
         <v>22</v>
       </c>
-      <c r="J44" t="s">
-        <v>239</v>
-      </c>
       <c r="K44" t="s">
         <v>153</v>
       </c>
@@ -3320,8 +3315,11 @@
       <c r="X44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>302</v>
       </c>
@@ -3333,9 +3331,6 @@
       </c>
       <c r="E45">
         <v>22</v>
-      </c>
-      <c r="J45" t="s">
-        <v>239</v>
       </c>
       <c r="K45" t="s">
         <v>157</v>
@@ -3363,11 +3358,14 @@
       <c r="X45" t="s">
         <v>35</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC45" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>302</v>
       </c>
@@ -3380,9 +3378,6 @@
       <c r="E46">
         <v>23</v>
       </c>
-      <c r="J46" t="s">
-        <v>239</v>
-      </c>
       <c r="K46" t="s">
         <v>251</v>
       </c>
@@ -3407,8 +3402,11 @@
       <c r="X46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>302</v>
       </c>
@@ -3421,9 +3419,6 @@
       <c r="E47">
         <v>23</v>
       </c>
-      <c r="J47" t="s">
-        <v>239</v>
-      </c>
       <c r="K47" t="s">
         <v>250</v>
       </c>
@@ -3448,11 +3443,14 @@
       <c r="X47" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>302</v>
       </c>
@@ -3465,9 +3463,6 @@
       <c r="E48">
         <v>24</v>
       </c>
-      <c r="J48" t="s">
-        <v>239</v>
-      </c>
       <c r="K48" t="s">
         <v>249</v>
       </c>
@@ -3492,8 +3487,11 @@
       <c r="X48" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>302</v>
       </c>
@@ -3506,9 +3504,6 @@
       <c r="E49">
         <v>24</v>
       </c>
-      <c r="J49" t="s">
-        <v>239</v>
-      </c>
       <c r="K49" t="s">
         <v>171</v>
       </c>
@@ -3533,8 +3528,11 @@
       <c r="X49" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
         <v>302</v>
       </c>
@@ -3547,9 +3545,6 @@
       <c r="E50">
         <v>24</v>
       </c>
-      <c r="J50" t="s">
-        <v>239</v>
-      </c>
       <c r="K50" t="s">
         <v>248</v>
       </c>
@@ -3580,8 +3575,11 @@
       <c r="X50" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>302</v>
       </c>
@@ -3594,9 +3592,6 @@
       <c r="E51">
         <v>25</v>
       </c>
-      <c r="J51" t="s">
-        <v>239</v>
-      </c>
       <c r="K51" t="s">
         <v>247</v>
       </c>
@@ -3621,8 +3616,11 @@
       <c r="X51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
         <v>302</v>
       </c>
@@ -3635,9 +3633,6 @@
       <c r="E52">
         <v>25</v>
       </c>
-      <c r="J52" t="s">
-        <v>239</v>
-      </c>
       <c r="K52" t="s">
         <v>246</v>
       </c>
@@ -3662,8 +3657,11 @@
       <c r="X52" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>302</v>
       </c>
@@ -3676,9 +3674,6 @@
       <c r="E53">
         <v>26</v>
       </c>
-      <c r="J53" t="s">
-        <v>239</v>
-      </c>
       <c r="K53" t="s">
         <v>186</v>
       </c>
@@ -3703,8 +3698,11 @@
       <c r="X53" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>302</v>
       </c>
@@ -3717,9 +3715,6 @@
       <c r="E54">
         <v>26</v>
       </c>
-      <c r="J54" t="s">
-        <v>239</v>
-      </c>
       <c r="K54" t="s">
         <v>190</v>
       </c>
@@ -3744,8 +3739,11 @@
       <c r="X54" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
         <v>302</v>
       </c>
@@ -3758,9 +3756,6 @@
       <c r="E55">
         <v>27</v>
       </c>
-      <c r="J55" t="s">
-        <v>239</v>
-      </c>
       <c r="K55" t="s">
         <v>245</v>
       </c>
@@ -3785,8 +3780,11 @@
       <c r="X55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>302</v>
       </c>
@@ -3799,9 +3797,6 @@
       <c r="E56">
         <v>28</v>
       </c>
-      <c r="J56" t="s">
-        <v>239</v>
-      </c>
       <c r="K56" t="s">
         <v>199</v>
       </c>
@@ -3826,8 +3821,11 @@
       <c r="X56" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
         <v>302</v>
       </c>
@@ -3840,9 +3838,6 @@
       <c r="E57">
         <v>29</v>
       </c>
-      <c r="J57" t="s">
-        <v>239</v>
-      </c>
       <c r="K57" t="s">
         <v>201</v>
       </c>
@@ -3867,8 +3862,11 @@
       <c r="X57" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>302</v>
       </c>
@@ -3881,9 +3879,6 @@
       <c r="E58">
         <v>29</v>
       </c>
-      <c r="J58" t="s">
-        <v>239</v>
-      </c>
       <c r="K58" t="s">
         <v>244</v>
       </c>
@@ -3908,8 +3903,11 @@
       <c r="X58" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>302</v>
       </c>
@@ -3922,9 +3920,6 @@
       <c r="E59">
         <v>29</v>
       </c>
-      <c r="J59" t="s">
-        <v>239</v>
-      </c>
       <c r="K59" t="s">
         <v>243</v>
       </c>
@@ -3949,8 +3944,11 @@
       <c r="X59" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>302</v>
       </c>
@@ -3963,9 +3961,6 @@
       <c r="E60">
         <v>30</v>
       </c>
-      <c r="J60" t="s">
-        <v>239</v>
-      </c>
       <c r="K60" t="s">
         <v>211</v>
       </c>
@@ -3990,8 +3985,11 @@
       <c r="X60" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" s="8" t="s">
         <v>302</v>
       </c>
@@ -4004,9 +4002,6 @@
       <c r="E61">
         <v>30</v>
       </c>
-      <c r="J61" t="s">
-        <v>239</v>
-      </c>
       <c r="K61" t="s">
         <v>215</v>
       </c>
@@ -4031,8 +4026,11 @@
       <c r="X61" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>302</v>
       </c>
@@ -4045,9 +4043,6 @@
       <c r="E62">
         <v>33</v>
       </c>
-      <c r="J62" t="s">
-        <v>239</v>
-      </c>
       <c r="K62" t="s">
         <v>219</v>
       </c>
@@ -4072,8 +4067,11 @@
       <c r="X62" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" s="8" t="s">
         <v>302</v>
       </c>
@@ -4085,9 +4083,6 @@
       </c>
       <c r="E63">
         <v>33</v>
-      </c>
-      <c r="J63" t="s">
-        <v>239</v>
       </c>
       <c r="K63" t="s">
         <v>242</v>
@@ -4113,8 +4108,11 @@
       <c r="X63" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>302</v>
       </c>
@@ -4127,9 +4125,6 @@
       <c r="E64">
         <v>34</v>
       </c>
-      <c r="J64" t="s">
-        <v>239</v>
-      </c>
       <c r="K64" t="s">
         <v>226</v>
       </c>
@@ -4160,8 +4155,11 @@
       <c r="X64" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>302</v>
       </c>
@@ -4174,9 +4172,6 @@
       <c r="E65">
         <v>35</v>
       </c>
-      <c r="J65" t="s">
-        <v>239</v>
-      </c>
       <c r="K65" t="s">
         <v>241</v>
       </c>
@@ -4201,8 +4196,11 @@
       <c r="X65" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>302</v>
       </c>
@@ -4214,9 +4212,6 @@
       </c>
       <c r="E66">
         <v>35</v>
-      </c>
-      <c r="J66" t="s">
-        <v>239</v>
       </c>
       <c r="K66" t="s">
         <v>240</v>
@@ -4242,8 +4237,11 @@
       <c r="X66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>302</v>
       </c>
@@ -4255,9 +4253,6 @@
       </c>
       <c r="E67">
         <v>35</v>
-      </c>
-      <c r="J67" t="s">
-        <v>239</v>
       </c>
       <c r="K67" t="s">
         <v>236</v>
@@ -4283,8 +4278,11 @@
       <c r="X67" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
         <v>302</v>
       </c>
@@ -4297,9 +4295,6 @@
       <c r="E68">
         <v>36</v>
       </c>
-      <c r="J68" t="s">
-        <v>239</v>
-      </c>
       <c r="K68" t="s">
         <v>258</v>
       </c>
@@ -4324,8 +4319,11 @@
       <c r="X68" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>302</v>
       </c>
@@ -4338,9 +4336,6 @@
       <c r="E69">
         <v>36</v>
       </c>
-      <c r="J69" t="s">
-        <v>239</v>
-      </c>
       <c r="K69" t="s">
         <v>262</v>
       </c>
@@ -4365,8 +4360,11 @@
       <c r="X69" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>302</v>
       </c>
@@ -4379,9 +4377,6 @@
       <c r="E70">
         <v>37</v>
       </c>
-      <c r="J70" t="s">
-        <v>239</v>
-      </c>
       <c r="K70" t="s">
         <v>268</v>
       </c>
@@ -4406,8 +4401,11 @@
       <c r="X70" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
         <v>302</v>
       </c>
@@ -4420,9 +4418,6 @@
       <c r="E71">
         <v>37</v>
       </c>
-      <c r="J71" t="s">
-        <v>239</v>
-      </c>
       <c r="K71" t="s">
         <v>270</v>
       </c>
@@ -4447,8 +4442,11 @@
       <c r="X71" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>302</v>
       </c>
@@ -4461,9 +4459,6 @@
       <c r="E72">
         <v>38</v>
       </c>
-      <c r="J72" t="s">
-        <v>239</v>
-      </c>
       <c r="K72" t="s">
         <v>274</v>
       </c>
@@ -4488,11 +4483,14 @@
       <c r="X72" t="s">
         <v>35</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC72" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>302</v>
       </c>
@@ -4505,9 +4503,6 @@
       <c r="E73">
         <v>48</v>
       </c>
-      <c r="J73" t="s">
-        <v>239</v>
-      </c>
       <c r="K73" t="s">
         <v>277</v>
       </c>
@@ -4532,8 +4527,11 @@
       <c r="X73" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>302</v>
       </c>
@@ -4546,9 +4544,6 @@
       <c r="E74">
         <v>49</v>
       </c>
-      <c r="J74" t="s">
-        <v>239</v>
-      </c>
       <c r="K74" t="s">
         <v>280</v>
       </c>
@@ -4573,8 +4568,11 @@
       <c r="X74" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>302</v>
       </c>
@@ -4587,9 +4585,6 @@
       <c r="E75">
         <v>51</v>
       </c>
-      <c r="J75" t="s">
-        <v>239</v>
-      </c>
       <c r="K75" t="s">
         <v>157</v>
       </c>
@@ -4614,8 +4609,11 @@
       <c r="X75" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>302</v>
       </c>
@@ -4628,9 +4626,6 @@
       <c r="E76">
         <v>54</v>
       </c>
-      <c r="J76" t="s">
-        <v>239</v>
-      </c>
       <c r="K76" t="s">
         <v>285</v>
       </c>
@@ -4655,8 +4650,11 @@
       <c r="X76" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>302</v>
       </c>
@@ -4669,9 +4667,6 @@
       <c r="E77">
         <v>60</v>
       </c>
-      <c r="J77" t="s">
-        <v>239</v>
-      </c>
       <c r="K77" t="s">
         <v>287</v>
       </c>
@@ -4696,8 +4691,11 @@
       <c r="X77" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>302</v>
       </c>
@@ -4710,9 +4708,6 @@
       <c r="E78">
         <v>60</v>
       </c>
-      <c r="J78" t="s">
-        <v>239</v>
-      </c>
       <c r="K78" t="s">
         <v>287</v>
       </c>
@@ -4737,8 +4732,11 @@
       <c r="X78" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>302</v>
       </c>
@@ -4751,9 +4749,6 @@
       <c r="E79">
         <v>60</v>
       </c>
-      <c r="J79" t="s">
-        <v>239</v>
-      </c>
       <c r="K79" t="s">
         <v>287</v>
       </c>
@@ -4778,8 +4773,11 @@
       <c r="X79" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>302</v>
       </c>
@@ -4792,9 +4790,6 @@
       <c r="E80">
         <v>66</v>
       </c>
-      <c r="J80" t="s">
-        <v>239</v>
-      </c>
       <c r="K80" t="s">
         <v>287</v>
       </c>
@@ -4819,8 +4814,11 @@
       <c r="X80" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>302</v>
       </c>
@@ -4833,9 +4831,6 @@
       <c r="E81">
         <v>68</v>
       </c>
-      <c r="J81" t="s">
-        <v>239</v>
-      </c>
       <c r="K81" t="s">
         <v>294</v>
       </c>
@@ -4859,6 +4854,9 @@
       </c>
       <c r="X81" t="s">
         <v>50</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
